--- a/Excel Workbooks/100/100Pi10.xlsx
+++ b/Excel Workbooks/100/100Pi10.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927831D-9E79-4C6D-A529-E08617A0552B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,40 +441,40 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.8191216078286007</v>
+        <v>0.81912160782860066</v>
       </c>
       <c r="B2">
-        <v>0.2641342791459225</v>
+        <v>0.26413427914592252</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>-0.1815926535897932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.18159265358979321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5059045061944656</v>
+        <v>0.50590450619446559</v>
       </c>
       <c r="B3">
-        <v>0.7378078559752234</v>
+        <v>0.73780785597522336</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>-5.780273689597959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-5.7802736895979594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2452531295500302</v>
       </c>
       <c r="B4">
-        <v>0.1848424231794293</v>
+        <v>0.18484242317942931</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,599 +483,599 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.5664893784181104</v>
+        <v>0.56648937841811042</v>
       </c>
       <c r="B5">
-        <v>0.398133287152554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.39813328715255403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.7118190524544896</v>
+        <v>0.71181905245448962</v>
       </c>
       <c r="B6">
-        <v>0.6201415347406005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.62014153474060052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.389500556775861</v>
+        <v>0.38950055677586098</v>
       </c>
       <c r="B7">
-        <v>0.4904105187046499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.49041051870464991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.1564703492859073</v>
+        <v>0.15647034928590731</v>
       </c>
       <c r="B8">
-        <v>0.6494212603565654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.64942126035656544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.7318042299382842</v>
       </c>
       <c r="B9">
-        <v>0.5498943744055377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.54989437440553768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.8242758833534023</v>
+        <v>0.82427588335340229</v>
       </c>
       <c r="B10">
-        <v>0.9957668471227942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.99576684712279417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.7363369841531245</v>
+        <v>0.73633698415312454</v>
       </c>
       <c r="B11">
         <v>0.1458219796009417</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.9176871232657736</v>
+        <v>0.91768712326577362</v>
       </c>
       <c r="B12">
-        <v>0.6569493713150895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.65694937131508946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.6746853658056506</v>
+        <v>0.67468536580565064</v>
       </c>
       <c r="B13">
-        <v>0.9922914347860951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.99229143478609505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.4086688949373923</v>
+        <v>0.40866889493739228</v>
       </c>
       <c r="B14">
         <v>0.4170637155841207</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.6860883510516461</v>
+        <v>0.68608835105164612</v>
       </c>
       <c r="B15">
-        <v>0.0366662777404948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>3.6666277740494801E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.5021044056814857</v>
+        <v>0.50210440568148573</v>
       </c>
       <c r="B16">
-        <v>0.4023288926229607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.40232889262296068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.2457471570746042</v>
+        <v>0.24574715707460421</v>
       </c>
       <c r="B17">
         <v>0.8597758700281527</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.04292260191425112</v>
+        <v>4.2922601914251117E-2</v>
       </c>
       <c r="B18">
-        <v>0.07700805611121664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>7.7008056111216638E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.0471059957772203</v>
+        <v>4.71059957772203E-2</v>
       </c>
       <c r="B19">
         <v>0.2200006356815577</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.5861513458082869</v>
+        <v>0.58615134580828687</v>
       </c>
       <c r="B20">
-        <v>0.008764126725968935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>8.7641267259689348E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.8302922608336949</v>
       </c>
       <c r="B21">
-        <v>0.8817571316509948</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.88175713165099479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.8343837749868569</v>
       </c>
       <c r="B22">
-        <v>0.6209557523489612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.62095575234896117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.8599029100314851</v>
+        <v>0.85990291003148511</v>
       </c>
       <c r="B23">
-        <v>0.3959718064857189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.39597180648571889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.3021909572478109</v>
+        <v>0.30219095724781092</v>
       </c>
       <c r="B24">
-        <v>0.1785107141269099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.17851071412690989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.2373435928674437</v>
+        <v>0.23734359286744369</v>
       </c>
       <c r="B25">
-        <v>0.8202985317911349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.82029853179113488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.5445349132841488</v>
+        <v>0.54453491328414882</v>
       </c>
       <c r="B26">
-        <v>0.5854137959401748</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.58541379594017484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.5862641175423441</v>
+        <v>0.58626411754234409</v>
       </c>
       <c r="B27">
         <v>0.8289090492687583</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.932146965832209</v>
+        <v>0.93214696583220902</v>
       </c>
       <c r="B28">
-        <v>0.3308102788066875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.33081027880668751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.9410102659485727</v>
+        <v>0.94101026594857273</v>
       </c>
       <c r="B29">
-        <v>0.2597251152077547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.25972511520775471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.01061777622262527</v>
+        <v>1.061777622262527E-2</v>
       </c>
       <c r="B30">
-        <v>0.2953159263725516</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.29531592637255161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.4691702028046881</v>
+        <v>0.46917020280468807</v>
       </c>
       <c r="B31">
         <v>0.1080410859603855</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.3265437101852791</v>
+        <v>0.32654371018527911</v>
       </c>
       <c r="B32">
-        <v>0.01538688096219643</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1.5386880962196431E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.5337113044452834</v>
+        <v>0.53371130444528336</v>
       </c>
       <c r="B33">
-        <v>0.9123492519110951</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.91234925191109506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.9712056506269836</v>
+        <v>0.97120565062698361</v>
       </c>
       <c r="B34">
         <v>0.2933023815741107</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.6158431901769206</v>
+        <v>0.61584319017692057</v>
       </c>
       <c r="B35">
-        <v>0.2139239291455789</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.21392392914557889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.9458726837978878</v>
       </c>
       <c r="B36">
-        <v>0.5066930207326882</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.50669302073268818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.7809749421643468</v>
+        <v>0.78097494216434682</v>
       </c>
       <c r="B37">
-        <v>0.5619304728098636</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.56193047280986363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.1274077725919199</v>
       </c>
       <c r="B38">
-        <v>0.8093661569248451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.80936615692484515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.2838307299304018</v>
+        <v>0.28383072993040181</v>
       </c>
       <c r="B39">
-        <v>0.6988591444408598</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.69885914444085984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.8978069795852306</v>
+        <v>0.89780697958523059</v>
       </c>
       <c r="B40">
-        <v>0.8213172331792069</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.82131723317920691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.9223058502452698</v>
+        <v>0.92230585024526979</v>
       </c>
       <c r="B41">
-        <v>0.6525144054557417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.65251440545574169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.9019130319965628</v>
+        <v>0.90191303199656281</v>
       </c>
       <c r="B42">
-        <v>0.9590564507327407</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.95905645073274071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.3458295311394005</v>
+        <v>0.34582953113940051</v>
       </c>
       <c r="B43">
         <v>0.2112798069536943</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.05311822451531689</v>
+        <v>5.3118224515316892E-2</v>
       </c>
       <c r="B44">
-        <v>0.4574658755600057</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.45746587556000567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.6856790626529393</v>
+        <v>0.68567906265293932</v>
       </c>
       <c r="B45">
-        <v>0.3026665945687403</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.30266659456874029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.5954057004016005</v>
+        <v>0.59540570040160046</v>
       </c>
       <c r="B46">
-        <v>0.959024929834158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.95902492983415799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.1071686944371792</v>
       </c>
       <c r="B47">
-        <v>0.471335790335854</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.47133579033585399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.185924125140436</v>
+        <v>0.18592412514043599</v>
       </c>
       <c r="B48">
-        <v>0.2660342599621895</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.26603425996218949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.03298917767600595</v>
+        <v>3.2989177676005947E-2</v>
       </c>
       <c r="B49">
-        <v>0.8552829652362599</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.85528296523625991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.6661035455792981</v>
+        <v>0.66610354557929807</v>
       </c>
       <c r="B50">
-        <v>0.007836961853689539</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>7.8369618536895391E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.4489330743819563</v>
+        <v>0.44893307438195629</v>
       </c>
       <c r="B51">
-        <v>0.7469325982247029</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.74693259822470293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.9511094815502197</v>
+        <v>0.95110948155021968</v>
       </c>
       <c r="B52">
-        <v>0.4276846506919278</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.42768465069192779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.4443171511853014</v>
+        <v>0.44431715118530141</v>
       </c>
       <c r="B53">
-        <v>0.7295232899259331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.72952328992593307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.2683302497010672</v>
+        <v>0.26833024970106722</v>
       </c>
       <c r="B54">
         <v>0.5421426967323203</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.7217754266843677</v>
+        <v>0.72177542668436767</v>
       </c>
       <c r="B55">
-        <v>0.6468488588461936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.64684885884619359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.1077300593765509</v>
       </c>
       <c r="B56">
-        <v>0.2795894313301742</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.27958943133017422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.4206273775763698</v>
+        <v>0.42062737757636981</v>
       </c>
       <c r="B57">
-        <v>0.339819038385147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.33981903838514699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.07051151864768657</v>
+        <v>7.0511518647686566E-2</v>
       </c>
       <c r="B58">
-        <v>0.3345952897975705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.33459528979757053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.7772737547948027</v>
+        <v>0.77727375479480265</v>
       </c>
       <c r="B59">
-        <v>0.4890694219931702</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.48906942199317022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.6367796971587014</v>
+        <v>0.63677969715870142</v>
       </c>
       <c r="B60">
-        <v>0.2388365030062176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.23883650300621759</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.4405834203174717</v>
+        <v>0.44058342031747172</v>
       </c>
       <c r="B61">
-        <v>0.4361759281759443</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.43617592817594431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.4133251417432995</v>
+        <v>0.41332514174329948</v>
       </c>
       <c r="B62">
         <v>0.8596912741053705</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.2490514992739555</v>
+        <v>0.24905149927395551</v>
       </c>
       <c r="B63">
-        <v>0.4168522675750548</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.41685226757505478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.7695658179612794</v>
+        <v>0.76956581796127943</v>
       </c>
       <c r="B64">
-        <v>0.9958846414027234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.99588464140272337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.4557737527460163</v>
+        <v>0.45577375274601628</v>
       </c>
       <c r="B65">
         <v>0.5779116216311232</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.7789284936641672</v>
+        <v>0.77892849366416717</v>
       </c>
       <c r="B66">
-        <v>0.4082914512264308</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.40829145122643079</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.3599929588081687</v>
+        <v>0.35999295880816867</v>
       </c>
       <c r="B67">
-        <v>0.01016703126328078</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>1.0167031263280781E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.3807903664883233</v>
+        <v>0.38079036648832332</v>
       </c>
       <c r="B68">
-        <v>0.9492819534339308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.94928195343393085</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.213220428022095</v>
+        <v>0.21322042802209501</v>
       </c>
       <c r="B69">
-        <v>0.32580421373464</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.32580421373464002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.8859143460633895</v>
+        <v>0.88591434606338948</v>
       </c>
       <c r="B70">
-        <v>0.5661644203299914</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.56616442032999137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.6326541637274133</v>
+        <v>0.63265416372741334</v>
       </c>
       <c r="B71">
-        <v>0.8395843794226188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.83958437942261877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.4288948894537826</v>
+        <v>0.42889488945378262</v>
       </c>
       <c r="B72">
-        <v>0.3429554459289773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.34295544592897731</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.3882293645558088</v>
+        <v>0.38822936455580881</v>
       </c>
       <c r="B73">
         <v>0.6931345517028632</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.4519129167132935</v>
+        <v>0.45191291671329348</v>
       </c>
       <c r="B74">
-        <v>0.4226580922253982</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.42265809222539819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.06467504488565323</v>
+        <v>6.4675044885653232E-2</v>
       </c>
       <c r="B75">
-        <v>0.9658269213677669</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.96582692136776693</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.6355690168159626</v>
+        <v>0.63556901681596256</v>
       </c>
       <c r="B76">
-        <v>0.8793789982969381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.87937899829693811</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.1317536568918449</v>
       </c>
       <c r="B77">
-        <v>0.1827795851697901</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.18277958516979009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.8633538634493533</v>
+        <v>0.86335386344935328</v>
       </c>
       <c r="B78">
-        <v>0.9564790962964611</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.95647909629646111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.2932016476685475</v>
       </c>
@@ -1028,180 +1083,180 @@
         <v>0.1263677358874048</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.09812659147707448</v>
+        <v>9.8126591477074476E-2</v>
       </c>
       <c r="B80">
-        <v>0.9112783131118113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.91127831311181129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.299225058061578</v>
+        <v>0.29922505806157801</v>
       </c>
       <c r="B81">
-        <v>0.8588313253005332</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.85883132530053319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.4054484373637525</v>
+        <v>0.40544843736375252</v>
       </c>
       <c r="B82">
-        <v>0.3599267052419965</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.35992670524199649</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.8699068776942814</v>
+        <v>0.86990687769428143</v>
       </c>
       <c r="B83">
-        <v>0.3550076340460401</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.35500763404604008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.2444450862862084</v>
       </c>
       <c r="B84">
-        <v>0.1565423315857696</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.15654233158576961</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.8508260779739033</v>
+        <v>0.85082607797390331</v>
       </c>
       <c r="B85">
-        <v>0.6739138647505788</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.67391386475057879</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.5409647189343221</v>
+        <v>0.54096471893432208</v>
       </c>
       <c r="B86">
-        <v>0.8133357255927758</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.81333572559277578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.07314434543888859</v>
+        <v>7.3144345438888592E-2</v>
       </c>
       <c r="B87">
-        <v>0.8212823709173944</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.82128237091739442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.4601877930559614</v>
+        <v>0.46018779305596141</v>
       </c>
       <c r="B88">
-        <v>0.164190290215991</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.16419029021599099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.6160346787149139</v>
+        <v>0.61603467871491391</v>
       </c>
       <c r="B89">
-        <v>0.4061347506581521</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.40613475065815208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.9466192551465071</v>
+        <v>0.94661925514650713</v>
       </c>
       <c r="B90">
         <v>0.4182817625758718</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.7845810978006073</v>
+        <v>0.78458109780060725</v>
       </c>
       <c r="B91">
-        <v>0.2953821890075879</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.29538218900758789</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.8230854778279981</v>
+        <v>0.82308547782799812</v>
       </c>
       <c r="B92">
-        <v>0.2666262984796325</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.26662629847963248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.2593011531982138</v>
+        <v>0.25930115319821379</v>
       </c>
       <c r="B93">
-        <v>0.9008338591171079</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.90083385911710789</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.1024558587775768</v>
+        <v>0.10245585877757681</v>
       </c>
       <c r="B94">
-        <v>0.7118848668209176</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.71188486682091756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.8595976796317935</v>
+        <v>0.85959767963179345</v>
       </c>
       <c r="B95">
-        <v>0.9466515064196453</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.94665150641964535</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.04493829236892921</v>
+        <v>4.4938292368929211E-2</v>
       </c>
       <c r="B96">
-        <v>0.5631066181433299</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.56310661814332985</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.3715410185194052</v>
+        <v>0.37154101851940519</v>
       </c>
       <c r="B97">
-        <v>0.9864300141224488</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.98643001412244879</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.150328432339938</v>
+        <v>0.15032843233993801</v>
       </c>
       <c r="B98">
-        <v>0.5869453437006211</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.58694534370062112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.4158925863492127</v>
+        <v>0.41589258634921272</v>
       </c>
       <c r="B99">
-        <v>0.9492543979846291</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.94925439798462907</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.701512312199584</v>
+        <v>0.70151231219958399</v>
       </c>
       <c r="B100">
-        <v>0.722978005784135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.72297800578413496</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.02857007595478955</v>
+        <v>2.857007595478955E-2</v>
       </c>
       <c r="B101">
-        <v>0.03024210485067713</v>
+        <v>3.0242104850677132E-2</v>
       </c>
     </row>
   </sheetData>
